--- a/biology/Mycologie/Eurotiomycetidae/Eurotiomycetidae.xlsx
+++ b/biology/Mycologie/Eurotiomycetidae/Eurotiomycetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eurotiomycetidae sont une des sous-classes de champignons (Fungi) de la classe des Eurotiomycetes (division des Ascomycota).
 </t>
@@ -511,7 +523,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des saprophytes ou des parasites de plantes ou d'animaux ; certains peuvent former des ectomycorhizes.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ascocarpes sont des cléistothèces ou des gymnothèces, dépourvus de paraphyses. Les asques sont protuniqués ou quelquefois bituniqués.
 </t>
@@ -573,10 +589,12 @@
           <t>Systématique et classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-classe se compose de trois ordres monophylétiques. Le cladogramme se présente sous la forme suivante [1]:
-La proximité entre les ordres des Onygenales et des Eurotiales qui forment des cléistothèces est depuis longtemps avérée. Les champignons à cléistothèces étaient autrefois regroupés dans le groupe fortement polyphylétique des plectomycètes (qui comportait également les Erysiphales). La parenté des Coryneliales a été établie sur des bases moléculaires[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-classe se compose de trois ordres monophylétiques. Le cladogramme se présente sous la forme suivante :
+La proximité entre les ordres des Onygenales et des Eurotiales qui forment des cléistothèces est depuis longtemps avérée. Les champignons à cléistothèces étaient autrefois regroupés dans le groupe fortement polyphylétique des plectomycètes (qui comportait également les Erysiphales). La parenté des Coryneliales a été établie sur des bases moléculaires.
 </t>
         </is>
       </c>
